--- a/app/config/tables/imnci/forms/imnci_test/imnci_test.xlsx
+++ b/app/config/tables/imnci/forms/imnci_test/imnci_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3181" yWindow="0" windowWidth="45295" windowHeight="28224" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="3181" yWindow="0" windowWidth="45295" windowHeight="28224" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="1341">
   <si>
     <t>comments</t>
   </si>
@@ -4011,12 +4011,6 @@
   </si>
   <si>
     <t>data_value</t>
-  </si>
-  <si>
-    <t>display.text</t>
-  </si>
-  <si>
-    <t>display.text.hindi</t>
   </si>
   <si>
     <t>setting_name</t>
@@ -5226,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>2</v>
@@ -5235,28 +5229,28 @@
         <v>1</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>1335</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>1336</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1337</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>1338</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>1339</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>1340</v>
       </c>
       <c r="M1" s="31" t="s">
         <v>5</v>
@@ -5265,10 +5259,10 @@
         <v>6</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="Q1" s="32" t="s">
         <v>7</v>
@@ -5286,7 +5280,7 @@
     <row r="3" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="40" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -5301,7 +5295,7 @@
     <row r="4" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="40" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -5318,7 +5312,7 @@
       <c r="B5" s="35"/>
       <c r="C5" s="4"/>
       <c r="D5" s="62" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>1208</v>
@@ -5327,7 +5321,7 @@
         <v>82</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>83</v>
@@ -5363,7 +5357,7 @@
     <row r="7" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="40" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -5427,7 +5421,7 @@
     <row r="11" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="40" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -5478,7 +5472,7 @@
     <row r="14" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="40" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -5494,7 +5488,7 @@
       <c r="A15" s="15"/>
       <c r="B15" s="35"/>
       <c r="D15" s="41" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E15" s="41" t="s">
         <v>1161</v>
@@ -5516,7 +5510,7 @@
       <c r="A16" s="15"/>
       <c r="B16" s="35"/>
       <c r="D16" s="42" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="E16" s="42" t="s">
         <v>1070</v>
@@ -5552,7 +5546,7 @@
       <c r="A18" s="15"/>
       <c r="B18" s="35"/>
       <c r="D18" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>1017</v>
@@ -5709,10 +5703,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>2</v>
@@ -5721,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>3</v>
@@ -5730,19 +5724,19 @@
         <v>4</v>
       </c>
       <c r="I1" s="31" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>1335</v>
+      </c>
+      <c r="K1" s="31" t="s">
         <v>1336</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>1337</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>1338</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>1339</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>1340</v>
       </c>
       <c r="N1" s="31" t="s">
         <v>5</v>
@@ -5751,16 +5745,16 @@
         <v>6</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="R1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="S1" s="31" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="49.75" x14ac:dyDescent="0.2">
@@ -5768,7 +5762,7 @@
         <v>340</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -6056,7 +6050,7 @@
     <row r="27" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="27" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -6269,7 +6263,7 @@
       <c r="B41" s="53"/>
       <c r="C41" s="53"/>
       <c r="E41" s="41" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F41" s="41" t="s">
         <v>443</v>
@@ -6989,7 +6983,7 @@
     <row r="98" spans="1:27" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
       <c r="B98" s="60" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C98" s="53"/>
     </row>
@@ -7269,7 +7263,7 @@
       <c r="B119" s="53"/>
       <c r="C119" s="53"/>
       <c r="E119" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F119" s="42" t="s">
         <v>1017</v>
@@ -7399,7 +7393,7 @@
     <row r="129" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A129" s="22"/>
       <c r="B129" s="54" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C129" s="53"/>
     </row>
@@ -7504,7 +7498,7 @@
       <c r="B136" s="53"/>
       <c r="C136" s="53"/>
       <c r="E136" s="41" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F136" s="41" t="s">
         <v>443</v>
@@ -8058,7 +8052,7 @@
     <row r="191" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A191" s="15"/>
       <c r="B191" s="60" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C191" s="53"/>
     </row>
@@ -8097,7 +8091,7 @@
       <c r="C193" s="53"/>
       <c r="D193" s="18"/>
       <c r="E193" s="42" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F193" s="42" t="s">
         <v>1070</v>
@@ -8120,7 +8114,7 @@
       <c r="P193" s="18"/>
       <c r="Q193" s="18"/>
       <c r="R193" s="55" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="S193" s="18"/>
       <c r="T193" s="18"/>
@@ -8607,7 +8601,7 @@
       <c r="B228" s="53"/>
       <c r="C228" s="53"/>
       <c r="E228" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F228" s="42" t="s">
         <v>1203</v>
@@ -8708,7 +8702,7 @@
     <row r="237" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A237" s="15"/>
       <c r="B237" s="10" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C237" s="53"/>
     </row>
@@ -9278,7 +9272,7 @@
     <row r="280" spans="1:27" ht="26.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="15"/>
       <c r="B280" s="55" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C280" s="53"/>
       <c r="G280" s="18"/>
@@ -9401,7 +9395,7 @@
       <c r="B290" s="53"/>
       <c r="C290" s="53"/>
       <c r="E290" s="41" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F290" s="41" t="s">
         <v>534</v>
@@ -10519,7 +10513,7 @@
     <row r="387" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A387" s="15"/>
       <c r="B387" s="23" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C387" s="53"/>
     </row>
@@ -10784,7 +10778,7 @@
     <row r="403" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A403" s="15"/>
       <c r="B403" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C403" s="53"/>
     </row>
@@ -10866,7 +10860,7 @@
       <c r="B411" s="53"/>
       <c r="C411" s="53"/>
       <c r="E411" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F411" s="42" t="s">
         <v>1017</v>
@@ -10932,7 +10926,7 @@
       <c r="B416" s="53"/>
       <c r="C416" s="53"/>
       <c r="E416" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F416" s="42" t="s">
         <v>1017</v>
@@ -10975,7 +10969,7 @@
       <c r="B420" s="53"/>
       <c r="C420" s="53"/>
       <c r="E420" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F420" s="42" t="s">
         <v>1017</v>
@@ -11007,7 +11001,7 @@
       <c r="B422" s="53"/>
       <c r="C422" s="53"/>
       <c r="E422" s="41" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F422" s="41" t="s">
         <v>1096</v>
@@ -11116,7 +11110,7 @@
       <c r="B431" s="53"/>
       <c r="C431" s="53"/>
       <c r="E431" s="41" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F431" s="41" t="s">
         <v>1170</v>
@@ -11147,7 +11141,7 @@
       <c r="B434" s="53"/>
       <c r="C434" s="53"/>
       <c r="E434" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F434" s="42" t="s">
         <v>1017</v>
@@ -11224,7 +11218,7 @@
       <c r="B441" s="53"/>
       <c r="C441" s="53"/>
       <c r="E441" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F441" s="42" t="s">
         <v>1017</v>
@@ -11322,7 +11316,7 @@
     <row r="450" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A450" s="15"/>
       <c r="B450" s="10" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="451" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
@@ -11608,7 +11602,7 @@
     <row r="475" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A475" s="15"/>
       <c r="B475" s="10" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="476" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
@@ -11883,7 +11877,7 @@
     <row r="497" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A497" s="15"/>
       <c r="B497" s="10" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="498" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
@@ -12175,7 +12169,7 @@
     <row r="520" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A520" s="15"/>
       <c r="B520" s="10" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="521" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
@@ -12399,7 +12393,7 @@
     <row r="539" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A539" s="15"/>
       <c r="B539" s="23" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C539" s="53"/>
     </row>
@@ -13659,7 +13653,7 @@
     <row r="613" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A613" s="15"/>
       <c r="B613" s="56" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D613" s="18"/>
       <c r="G613" s="18"/>
@@ -14068,14 +14062,14 @@
     </row>
     <row r="635" spans="1:19" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B635" s="57" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C635" s="53"/>
     </row>
     <row r="636" spans="1:19" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B636" s="53"/>
       <c r="C636" s="57" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="637" spans="1:19" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -14890,10 +14884,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>2</v>
@@ -14902,7 +14896,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>3</v>
@@ -14911,19 +14905,19 @@
         <v>4</v>
       </c>
       <c r="I1" s="31" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>1335</v>
+      </c>
+      <c r="K1" s="31" t="s">
         <v>1336</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>1337</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>1338</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>1339</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>1340</v>
       </c>
       <c r="N1" s="31" t="s">
         <v>5</v>
@@ -14932,16 +14926,16 @@
         <v>6</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="R1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="S1" s="31" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14952,7 +14946,7 @@
     <row r="3" spans="1:27" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C3" s="53"/>
     </row>
@@ -14964,7 +14958,7 @@
     <row r="5" spans="1:27" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -15043,7 +15037,7 @@
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
       <c r="E9" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>1017</v>
@@ -15062,10 +15056,10 @@
       <c r="A10" s="15"/>
       <c r="B10" s="53"/>
       <c r="C10" s="58" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="D10" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15083,14 +15077,14 @@
         <v>761</v>
       </c>
       <c r="N11" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="53"/>
       <c r="C12" s="58" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
@@ -15214,7 +15208,7 @@
     <row r="22" spans="1:27" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -15364,7 +15358,7 @@
     <row r="31" spans="1:27" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -15463,7 +15457,7 @@
     <row r="35" spans="1:27" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="10" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C35" s="53"/>
     </row>
@@ -15491,7 +15485,7 @@
     <row r="43" spans="1:27" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="10" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C43" s="53"/>
     </row>
@@ -15762,7 +15756,7 @@
       <c r="B63" s="53"/>
       <c r="C63" s="53"/>
       <c r="E63" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F63" s="42" t="s">
         <v>1017</v>
@@ -15911,7 +15905,7 @@
     <row r="74" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="59" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C74" s="53"/>
     </row>
@@ -15965,7 +15959,7 @@
     <row r="79" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="10" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="80" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
@@ -16584,7 +16578,7 @@
     <row r="125" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A125" s="15"/>
       <c r="B125" s="23" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="126" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
@@ -16623,12 +16617,12 @@
     </row>
     <row r="128" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
       <c r="B128" s="55" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="129" spans="2:2" ht="12.45" x14ac:dyDescent="0.2">
       <c r="B129" s="13" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
   </sheetData>
@@ -17384,9 +17378,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17406,10 +17400,10 @@
         <v>1265</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>1266</v>
+        <v>1333</v>
       </c>
       <c r="D1" t="s">
-        <v>1267</v>
+        <v>1332</v>
       </c>
       <c r="E1" t="s">
         <v>1016</v>
@@ -18448,7 +18442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -18464,22 +18458,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>1220</v>
       </c>
       <c r="C1" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="E1" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="F1" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -18487,7 +18481,7 @@
         <v>1221</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -18500,27 +18494,27 @@
     </row>
     <row r="4" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C6" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E6" s="29"/>
     </row>
@@ -18535,10 +18529,10 @@
     </row>
     <row r="8" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C8" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="E8" s="29"/>
     </row>
@@ -18553,7 +18547,7 @@
     </row>
     <row r="10" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C10" t="s">
         <v>1224</v>
@@ -18575,26 +18569,26 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F12" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F13" t="s">
         <v>1311</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1312</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -18642,7 +18636,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>2</v>
@@ -18651,28 +18645,28 @@
         <v>1</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>1335</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>1336</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1337</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>1338</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>1339</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>1340</v>
       </c>
       <c r="M1" s="31" t="s">
         <v>5</v>
@@ -18681,16 +18675,16 @@
         <v>6</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="Q1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="R1" s="31" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -18737,7 +18731,7 @@
     <row r="5" spans="1:18" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="D5" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E5" s="42" t="s">
         <v>1017</v>
@@ -18797,7 +18791,7 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="O7" t="s">
         <v>23</v>
@@ -18844,7 +18838,7 @@
         <v>30</v>
       </c>
       <c r="M9" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="P9" s="12"/>
     </row>
@@ -18919,7 +18913,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>41</v>
@@ -18972,7 +18966,7 @@
       <c r="A18" s="15"/>
       <c r="C18" s="18"/>
       <c r="D18" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>36</v>
@@ -19071,7 +19065,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>2</v>
@@ -19080,25 +19074,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>1336</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>1337</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1338</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>1339</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>1340</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>5</v>
@@ -19107,16 +19101,16 @@
         <v>6</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="33" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19144,7 +19138,7 @@
     <row r="5" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="D5" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E5" s="42" t="s">
         <v>1017</v>
@@ -19165,7 +19159,7 @@
     <row r="6" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="D6" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>1017</v>
@@ -19186,7 +19180,7 @@
     <row r="7" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="D7" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>1017</v>
@@ -19214,7 +19208,7 @@
     <row r="10" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="D10" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>1017</v>
@@ -19537,7 +19531,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>2</v>
@@ -19546,25 +19540,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>1336</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>1337</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1338</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>1339</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>1340</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>5</v>
@@ -19573,16 +19567,16 @@
         <v>6</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="33" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19682,7 +19676,7 @@
       <c r="A8" s="15"/>
       <c r="C8" s="4"/>
       <c r="D8" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E8" s="62" t="s">
         <v>1024</v>
@@ -19713,7 +19707,7 @@
       <c r="A9" s="15"/>
       <c r="C9" s="4"/>
       <c r="D9" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E9" s="62" t="s">
         <v>1024</v>
@@ -19801,7 +19795,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>2</v>
@@ -19810,25 +19804,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>1336</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>1337</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1338</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>1339</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>1340</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>5</v>
@@ -19837,16 +19831,16 @@
         <v>6</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="33" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19893,7 +19887,7 @@
       <c r="A6" s="15"/>
       <c r="C6" s="4"/>
       <c r="D6" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>1017</v>
@@ -19945,7 +19939,7 @@
       <c r="B11" s="35"/>
       <c r="C11"/>
       <c r="D11" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>1017</v>
@@ -19981,7 +19975,7 @@
     <row r="14" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="D14" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>1017</v>
@@ -20027,7 +20021,7 @@
     <row r="18" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="D18" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>1017</v>
@@ -20048,7 +20042,7 @@
     <row r="19" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="D19" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E19" s="42" t="s">
         <v>1017</v>
@@ -20076,7 +20070,7 @@
     <row r="22" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="D22" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E22" s="62" t="s">
         <v>131</v>
@@ -20194,7 +20188,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>2</v>
@@ -20203,25 +20197,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>1336</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>1337</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1338</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>1339</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>1340</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>5</v>
@@ -20230,16 +20224,16 @@
         <v>6</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="33" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20252,7 +20246,7 @@
     <row r="4" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="D4" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E4" s="42" t="s">
         <v>1017</v>
@@ -20307,7 +20301,7 @@
     <row r="8" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="D8" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E8" s="62" t="s">
         <v>1024</v>
@@ -20420,7 +20414,7 @@
     <row r="22" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="D22" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>1017</v>
@@ -20460,7 +20454,7 @@
     <row r="27" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="D27" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E27" s="41" t="s">
         <v>1198</v>
@@ -20481,7 +20475,7 @@
     <row r="28" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="D28" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E28" s="42" t="s">
         <v>1017</v>
@@ -20530,7 +20524,7 @@
     <row r="33" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="D33" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E33" s="62" t="s">
         <v>1024</v>
@@ -20560,7 +20554,7 @@
     <row r="35" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="D35" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E35" s="62" t="s">
         <v>1024</v>
@@ -20615,7 +20609,7 @@
     <row r="41" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="D41" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E41" s="62" t="s">
         <v>1024</v>
@@ -20636,7 +20630,7 @@
     <row r="42" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="D42" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E42" s="62" t="s">
         <v>1024</v>
@@ -20657,7 +20651,7 @@
     <row r="43" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="D43" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E43" s="62" t="s">
         <v>1024</v>
@@ -20714,7 +20708,7 @@
     <row r="49" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="D49" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E49" s="62" t="s">
         <v>1024</v>
@@ -20735,7 +20729,7 @@
     <row r="50" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="D50" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E50" s="62" t="s">
         <v>1024</v>
@@ -20756,7 +20750,7 @@
     <row r="51" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
       <c r="D51" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E51" s="62" t="s">
         <v>1024</v>
@@ -20786,7 +20780,7 @@
     <row r="53" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="D53" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E53" s="42" t="s">
         <v>1017</v>
@@ -20861,7 +20855,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>2</v>
@@ -20870,25 +20864,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>1336</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>1337</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1338</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>1339</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>1340</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>5</v>
@@ -20897,16 +20891,16 @@
         <v>6</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="33" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20919,7 +20913,7 @@
     <row r="4" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="D4" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E4" s="42" t="s">
         <v>1017</v>
@@ -20940,7 +20934,7 @@
     <row r="5" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="D5" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E5" s="42" t="s">
         <v>1017</v>
@@ -21007,7 +21001,7 @@
     <row r="12" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="D12" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E12" s="62" t="s">
         <v>1024</v>
@@ -21028,7 +21022,7 @@
     <row r="13" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="D13" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E13" s="62" t="s">
         <v>1024</v>
@@ -21225,7 +21219,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>2</v>
@@ -21234,25 +21228,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>1336</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>1337</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1338</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>1339</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>1340</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>5</v>
@@ -21261,16 +21255,16 @@
         <v>6</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="33" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21298,7 +21292,7 @@
     <row r="5" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="D5" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E5" s="62" t="s">
         <v>1024</v>
@@ -21320,7 +21314,7 @@
       <c r="A6" s="15"/>
       <c r="B6" s="40"/>
       <c r="D6" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E6" s="62" t="s">
         <v>1024</v>
@@ -21348,7 +21342,7 @@
     <row r="9" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="D9" s="41" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>217</v>
@@ -21363,7 +21357,7 @@
         <v>219</v>
       </c>
       <c r="I9" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -21543,7 +21537,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>2</v>
@@ -21552,25 +21546,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>1336</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>1337</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1338</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>1339</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>1340</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>5</v>
@@ -21579,16 +21573,16 @@
         <v>6</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -22353,7 +22347,7 @@
         <v>1256</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
@@ -22961,7 +22955,7 @@
         <v>1256</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="107" spans="1:29" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
